--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-A-C.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-A-C.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F14F2E8-E333-44B0-A0CA-FA1EC2D6D6FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21D0841-CAD7-47DC-B1B5-5C4D740D6642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82485" yWindow="375" windowWidth="31200" windowHeight="21360" firstSheet="5" activeTab="14" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="8730" yWindow="3900" windowWidth="23055" windowHeight="19110" firstSheet="5" activeTab="10" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
     <sheet name="COQUITO DE ACEITE" sheetId="16" r:id="rId14"/>
     <sheet name="CHABACANO" sheetId="17" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,12 +37,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -50,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="393" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="29">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -138,9 +133,6 @@
   <si>
     <t>Promedio 1974/79</t>
   </si>
-  <si>
-    <t>0.8 74</t>
-  </si>
 </sst>
 </file>
 
@@ -222,10 +214,10 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -546,14 +538,14 @@
       <selection activeCell="J4" sqref="J4:J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>26</v>
       </c>
@@ -572,12 +564,12 @@
       <selection pane="bottomLeft" activeCell="Q63" sqref="Q63:X63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -585,17 +577,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -629,7 +621,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -659,7 +651,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -681,7 +673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -703,7 +695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -735,7 +727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -767,7 +759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -799,7 +791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -834,7 +826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -868,7 +860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -902,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -936,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -970,7 +962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -1004,7 +996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -1041,7 +1033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -1075,7 +1067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -1109,7 +1101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -1143,7 +1135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -1177,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -1211,7 +1203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -1248,7 +1240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -1282,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -1316,7 +1308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -1350,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -1382,7 +1374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -1414,7 +1406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -1451,7 +1443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -1483,7 +1475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -1515,7 +1507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -1547,14 +1539,14 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
       <c r="B31" s="3">
         <v>451</v>
       </c>
-      <c r="C31" s="14">
+      <c r="C31" s="13">
         <v>11796</v>
       </c>
       <c r="D31" s="3">
@@ -1579,7 +1571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -1611,7 +1603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -1646,7 +1638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -1678,7 +1670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -1710,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -1742,7 +1734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -1774,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -1806,7 +1798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -1841,7 +1833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -1873,7 +1865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -1905,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -1937,7 +1929,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -1969,7 +1961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -2005,7 +1997,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -2044,7 +2036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -2078,7 +2070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -2114,7 +2106,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -2150,7 +2142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -2186,7 +2178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -2222,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -2261,7 +2253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -2297,7 +2289,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -2333,7 +2325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -2367,7 +2359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -2403,7 +2395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -2437,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -2476,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -2512,7 +2504,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -2548,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -2584,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -2620,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -2656,7 +2648,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -2677,7 +2669,7 @@
         <v>10</v>
       </c>
       <c r="H63" s="8"/>
-      <c r="I63" s="14">
+      <c r="I63" s="13">
         <v>15557</v>
       </c>
       <c r="J63" s="9">
@@ -2701,7 +2693,7 @@
       <c r="V63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -2735,7 +2727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -2769,7 +2761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -2803,7 +2795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -2837,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -2871,7 +2863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -2908,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -2942,7 +2934,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -2976,7 +2968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -3010,13 +3002,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -3031,17 +3023,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01219A3-8665-49E7-B51B-477B8C465D36}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -3049,17 +3041,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -3093,7 +3085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -3123,7 +3115,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -3145,7 +3137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -3167,7 +3159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -3199,7 +3191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -3231,7 +3223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -3263,7 +3255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -3298,7 +3290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -3330,7 +3322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -3362,7 +3354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -3394,7 +3386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -3426,7 +3418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -3458,7 +3450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -3493,7 +3485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -3525,7 +3517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -3557,7 +3549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -3589,7 +3581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -3621,7 +3613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -3653,7 +3645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -3688,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -3720,7 +3712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -3752,7 +3744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -3784,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -3818,7 +3810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -3852,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -3889,7 +3881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -3923,7 +3915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -3957,7 +3949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -3991,7 +3983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -4025,7 +4017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -4059,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -4096,7 +4088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -4130,7 +4122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -4164,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -4198,7 +4190,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -4232,7 +4224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -4266,7 +4258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -4303,7 +4295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -4335,7 +4327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -4367,7 +4359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -4399,7 +4391,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -4431,7 +4423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -4463,7 +4455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -4498,7 +4490,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -4530,7 +4522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -4562,7 +4554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -4594,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -4626,7 +4618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -4658,7 +4650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -4693,7 +4685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -4725,7 +4717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -4757,7 +4749,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -4789,7 +4781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -4821,7 +4813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -4853,7 +4845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -4888,7 +4880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -4920,7 +4912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -4952,7 +4944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -4984,7 +4976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -5016,7 +5008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -5048,7 +5040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -5083,7 +5075,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -5115,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -5147,7 +5139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -5167,8 +5159,8 @@
       <c r="I66" s="3">
         <v>55734</v>
       </c>
-      <c r="J66" s="6" t="s">
-        <v>29</v>
+      <c r="J66" s="6">
+        <v>0.874</v>
       </c>
       <c r="M66" s="2">
         <f t="shared" si="0"/>
@@ -5179,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -5211,7 +5203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -5243,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -5278,7 +5270,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -5310,7 +5302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -5342,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -5374,13 +5366,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -5400,12 +5392,12 @@
       <selection pane="bottomLeft" activeCell="Q39" sqref="Q39:V39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -5413,17 +5405,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -5457,7 +5449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -5487,7 +5479,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -5509,7 +5501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -5531,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -5561,7 +5553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -5591,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -5621,7 +5613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -5654,7 +5646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -5686,7 +5678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -5718,7 +5710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -5750,7 +5742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -5782,7 +5774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -5814,7 +5806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -5849,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -5879,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -5911,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -5943,7 +5935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -5975,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -6007,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -6042,7 +6034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -6074,7 +6066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -6106,7 +6098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -6138,7 +6130,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -6170,7 +6162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -6202,7 +6194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -6237,7 +6229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -6269,7 +6261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -6301,7 +6293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -6333,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -6363,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -6395,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -6430,7 +6422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -6460,7 +6452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -6490,7 +6482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -6520,7 +6512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -6552,7 +6544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -6569,7 +6561,7 @@
         <v>81</v>
       </c>
       <c r="H38" s="3"/>
-      <c r="I38" s="14">
+      <c r="I38" s="13">
         <v>43690</v>
       </c>
       <c r="J38" s="6">
@@ -6584,7 +6576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -6623,7 +6615,7 @@
       <c r="T39" s="3"/>
       <c r="V39" s="3"/>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -6653,7 +6645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -6685,7 +6677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -6717,7 +6709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -6749,7 +6741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -6781,7 +6773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -6816,7 +6808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -6848,7 +6840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -6880,7 +6872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -6912,7 +6904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -6944,7 +6936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -6976,7 +6968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -7011,7 +7003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -7043,7 +7035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -7075,7 +7067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -7107,7 +7099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -7139,7 +7131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -7169,7 +7161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -7204,7 +7196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -7234,7 +7226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -7264,7 +7256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -7296,7 +7288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -7328,7 +7320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -7360,7 +7352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -7395,7 +7387,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -7425,7 +7417,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -7455,7 +7447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -7485,7 +7477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -7515,7 +7507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -7545,7 +7537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -7578,7 +7570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -7608,7 +7600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -7638,7 +7630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -7668,13 +7660,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -7694,12 +7686,12 @@
       <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -7707,17 +7699,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -7751,7 +7743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -7781,7 +7773,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -7803,7 +7795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -7825,7 +7817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -7853,7 +7845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -7881,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -7911,7 +7903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -7944,7 +7936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -7976,7 +7968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -8006,7 +7998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -8036,7 +8028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -8066,7 +8058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -8096,7 +8088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -8131,7 +8123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -8161,7 +8153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -8191,7 +8183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -8221,7 +8213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -8251,7 +8243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -8281,7 +8273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -8314,7 +8306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -8344,7 +8336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -8374,7 +8366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -8404,7 +8396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -8436,7 +8428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -8466,7 +8458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -8501,7 +8493,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -8531,7 +8523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -8563,7 +8555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -8593,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -8625,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -8655,7 +8647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -8690,7 +8682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -8720,7 +8712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -8748,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -8776,7 +8768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -8806,7 +8798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -8834,7 +8826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -8867,7 +8859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -8895,7 +8887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -8923,7 +8915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -8953,7 +8945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -8981,7 +8973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -9011,7 +9003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -9046,7 +9038,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -9074,7 +9066,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -9104,7 +9096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -9134,7 +9126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -9164,7 +9156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -9194,7 +9186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -9227,7 +9219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -9255,7 +9247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -9283,7 +9275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -9311,7 +9303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -9339,7 +9331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -9367,7 +9359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -9398,7 +9390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -9426,7 +9418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -9454,7 +9446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -9482,7 +9474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -9510,7 +9502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -9538,7 +9530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -9569,7 +9561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -9599,7 +9591,7 @@
         <v>-45</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -9629,7 +9621,7 @@
         <v>-61</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -9657,7 +9649,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -9687,7 +9679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -9717,7 +9709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -9750,7 +9742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -9780,7 +9772,7 @@
         <v>-1000</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -9808,7 +9800,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -9836,13 +9828,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -9862,12 +9854,12 @@
       <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -9875,17 +9867,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -9919,7 +9911,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -9949,7 +9941,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -9971,7 +9963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -9993,7 +9985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -10015,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -10037,7 +10029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -10059,7 +10051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -10084,7 +10076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -10106,7 +10098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -10128,7 +10120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -10150,7 +10142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -10172,7 +10164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -10194,7 +10186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -10219,7 +10211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -10241,7 +10233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -10263,7 +10255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -10285,7 +10277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -10307,7 +10299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -10329,7 +10321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -10354,7 +10346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -10376,7 +10368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -10408,7 +10400,7 @@
         <v>-200</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -10440,7 +10432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -10472,7 +10464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -10504,7 +10496,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -10539,7 +10531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -10571,7 +10563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -10603,7 +10595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -10635,7 +10627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -10667,7 +10659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -10699,7 +10691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -10734,7 +10726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -10766,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -10798,7 +10790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -10830,7 +10822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -10862,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -10894,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -10929,7 +10921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -10961,7 +10953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -10993,7 +10985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -11025,7 +11017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -11057,7 +11049,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -11089,7 +11081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -11124,7 +11116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -11156,7 +11148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -11173,7 +11165,7 @@
       <c r="F47" s="3"/>
       <c r="G47" s="3"/>
       <c r="H47" s="3"/>
-      <c r="I47" s="14">
+      <c r="I47" s="13">
         <v>25305</v>
       </c>
       <c r="J47" s="6">
@@ -11188,7 +11180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -11220,7 +11212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -11252,7 +11244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -11284,7 +11276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -11323,7 +11315,7 @@
       <c r="S51" s="3"/>
       <c r="X51" s="3"/>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -11355,7 +11347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -11387,7 +11379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -11419,7 +11411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -11451,7 +11443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -11483,7 +11475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -11518,7 +11510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -11550,7 +11542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -11582,7 +11574,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -11616,7 +11608,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -11650,7 +11642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -11682,7 +11674,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -11719,7 +11711,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -11751,7 +11743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -11783,7 +11775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -11815,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -11847,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -11879,7 +11871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -11914,7 +11906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -11946,7 +11938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -11978,7 +11970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -12010,13 +12002,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -12031,17 +12023,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AC5E09-E028-434E-99CC-8A6C9A8C9055}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -12049,17 +12041,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -12093,7 +12085,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -12123,7 +12115,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -12145,7 +12137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -12167,7 +12159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -12199,7 +12191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -12231,7 +12223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -12263,7 +12255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -12298,7 +12290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -12330,7 +12322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -12362,7 +12354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -12394,7 +12386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -12426,7 +12418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -12458,7 +12450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -12493,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -12525,7 +12517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -12557,7 +12549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -12589,7 +12581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -12621,7 +12613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -12653,7 +12645,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -12688,7 +12680,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -12720,7 +12712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -12752,7 +12744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -12784,7 +12776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -12816,7 +12808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -12848,7 +12840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -12883,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -12915,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -12947,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -12979,7 +12971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -13011,7 +13003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -13043,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -13078,7 +13070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -13110,7 +13102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -13142,7 +13134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -13174,7 +13166,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -13206,7 +13198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -13238,7 +13230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -13273,7 +13265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -13305,7 +13297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -13315,7 +13307,7 @@
       <c r="C41" s="3">
         <v>13408</v>
       </c>
-      <c r="D41" s="14">
+      <c r="D41" s="13">
         <v>5256</v>
       </c>
       <c r="E41" s="3"/>
@@ -13337,7 +13329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -13369,7 +13361,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -13401,7 +13393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -13435,7 +13427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -13472,7 +13464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -13506,7 +13498,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -13540,7 +13532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -13574,7 +13566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -13608,7 +13600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -13642,7 +13634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -13679,7 +13671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -13715,7 +13707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -13749,7 +13741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -13783,7 +13775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -13817,7 +13809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -13851,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -13890,7 +13882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -13924,7 +13916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -13958,7 +13950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -13992,7 +13984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -14026,7 +14018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -14060,7 +14052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -14097,7 +14089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -14131,7 +14123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -14165,7 +14157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -14199,7 +14191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -14233,7 +14225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -14267,7 +14259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -14304,7 +14296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -14338,7 +14330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -14372,7 +14364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -14406,13 +14398,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -14432,12 +14424,12 @@
       <selection pane="bottomLeft" activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -14445,17 +14437,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -14489,7 +14481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -14519,7 +14511,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -14541,7 +14533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -14563,7 +14555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -14585,7 +14577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -14607,7 +14599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -14629,7 +14621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -14654,7 +14646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -14676,7 +14668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -14698,7 +14690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -14720,7 +14712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -14742,7 +14734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -14764,7 +14756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -14789,7 +14781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -14811,7 +14803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -14833,7 +14825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -14855,7 +14847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -14877,7 +14869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -14899,7 +14891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -14924,7 +14916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -14946,7 +14938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -14968,7 +14960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -14990,7 +14982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -15012,7 +15004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -15034,7 +15026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -15059,7 +15051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -15081,7 +15073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -15103,7 +15095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -15125,7 +15117,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -15147,7 +15139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -15169,7 +15161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -15194,7 +15186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -15216,7 +15208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -15238,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -15260,7 +15252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -15282,7 +15274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -15304,7 +15296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -15329,7 +15321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -15351,7 +15343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -15373,7 +15365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -15395,7 +15387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -15417,7 +15409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -15439,7 +15431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -15464,7 +15456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -15486,7 +15478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -15508,7 +15500,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -15530,7 +15522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -15552,7 +15544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -15574,7 +15566,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -15599,7 +15591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -15621,7 +15613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -15643,7 +15635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -15665,7 +15657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -15687,7 +15679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -15709,7 +15701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -15734,7 +15726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -15756,7 +15748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -15778,7 +15770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -15800,7 +15792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -15822,7 +15814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -15844,7 +15836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -15869,7 +15861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -15891,7 +15883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -15913,7 +15905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -15935,7 +15927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -15957,7 +15949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -15979,7 +15971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -16004,7 +15996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -16026,7 +16018,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -16048,7 +16040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -16070,13 +16062,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -16096,12 +16088,12 @@
       <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -16109,17 +16101,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -16153,7 +16145,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -16183,7 +16175,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -16205,7 +16197,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -16227,7 +16219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -16249,7 +16241,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -16271,7 +16263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -16293,7 +16285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -16318,7 +16310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -16340,7 +16332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -16362,7 +16354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -16384,7 +16376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -16406,7 +16398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -16428,7 +16420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -16453,7 +16445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -16475,7 +16467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -16497,7 +16489,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -16519,7 +16511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -16541,7 +16533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -16563,7 +16555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -16588,7 +16580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -16610,7 +16602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -16632,7 +16624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -16654,7 +16646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -16676,7 +16668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -16698,7 +16690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -16723,7 +16715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -16745,7 +16737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -16767,7 +16759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -16789,7 +16781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -16811,7 +16803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -16833,7 +16825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -16858,7 +16850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -16880,7 +16872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -16902,7 +16894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -16924,7 +16916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -16946,7 +16938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -16968,7 +16960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -16993,7 +16985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -17015,7 +17007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -17037,7 +17029,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -17059,7 +17051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -17081,7 +17073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -17115,7 +17107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>1960</v>
       </c>
@@ -17149,7 +17141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1961</v>
       </c>
@@ -17183,7 +17175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1962</v>
       </c>
@@ -17219,7 +17211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1963</v>
       </c>
@@ -17253,7 +17245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1964</v>
       </c>
@@ -17287,7 +17279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
         <v>8</v>
       </c>
@@ -17324,7 +17316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>1965</v>
       </c>
@@ -17360,7 +17352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1966</v>
       </c>
@@ -17394,7 +17386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1967</v>
       </c>
@@ -17428,7 +17420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1968</v>
       </c>
@@ -17462,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1969</v>
       </c>
@@ -17496,7 +17488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
         <v>10</v>
       </c>
@@ -17535,7 +17527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>1970</v>
       </c>
@@ -17569,7 +17561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1971</v>
       </c>
@@ -17605,7 +17597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1972</v>
       </c>
@@ -17639,7 +17631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1973</v>
       </c>
@@ -17675,7 +17667,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1974</v>
       </c>
@@ -17709,7 +17701,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
@@ -17748,7 +17740,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1975</v>
       </c>
@@ -17782,7 +17774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1976</v>
       </c>
@@ -17816,7 +17808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1977</v>
       </c>
@@ -17852,7 +17844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1978</v>
       </c>
@@ -17888,7 +17880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1979</v>
       </c>
@@ -17924,7 +17916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>9</v>
       </c>
@@ -17963,7 +17955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1980</v>
       </c>
@@ -17999,7 +17991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1981</v>
       </c>
@@ -18033,7 +18025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1982</v>
       </c>
@@ -18069,13 +18061,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
   </sheetData>
@@ -18095,12 +18087,12 @@
       <selection pane="bottomLeft" activeCell="Q63" sqref="Q63:X63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -18108,17 +18100,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -18152,7 +18144,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -18182,7 +18174,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -18204,7 +18196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -18226,7 +18218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -18258,7 +18250,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -18290,7 +18282,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -18322,7 +18314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>27</v>
       </c>
@@ -18357,7 +18349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -18389,7 +18381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -18421,7 +18413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -18453,7 +18445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -18485,7 +18477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -18517,7 +18509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -18556,7 +18548,7 @@
       <c r="S15" s="3"/>
       <c r="X15" s="3"/>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -18588,7 +18580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -18620,7 +18612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -18652,7 +18644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -18684,7 +18676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -18716,7 +18708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -18751,7 +18743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -18783,7 +18775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -18815,7 +18807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -18849,7 +18841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -18883,7 +18875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -18915,7 +18907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -18952,7 +18944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -18984,7 +18976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -19016,7 +19008,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -19048,7 +19040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -19080,7 +19072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -19112,7 +19104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -19147,7 +19139,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -19179,7 +19171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -19211,7 +19203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -19243,7 +19235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -19275,7 +19267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -19307,7 +19299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -19342,7 +19334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -19374,7 +19366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -19406,7 +19398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -19438,7 +19430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -19470,7 +19462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -19502,7 +19494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -19537,7 +19529,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -19571,7 +19563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -19603,7 +19595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -19635,7 +19627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -19669,7 +19661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -19703,7 +19695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -19742,7 +19734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -19774,7 +19766,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -19806,7 +19798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -19838,7 +19830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -19870,7 +19862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -19904,7 +19896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -19941,7 +19933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -19977,7 +19969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -20013,7 +20005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -20047,7 +20039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -20081,7 +20073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -20115,7 +20107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -20160,7 +20152,7 @@
       <c r="V63" s="3"/>
       <c r="X63" s="3"/>
     </row>
-    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -20194,7 +20186,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -20228,7 +20220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -20262,7 +20254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -20296,7 +20288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -20330,7 +20322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -20367,7 +20359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -20401,7 +20393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -20435,7 +20427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -20469,13 +20461,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -20495,12 +20487,12 @@
       <selection pane="bottomLeft" activeCell="J72" sqref="J72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -20508,17 +20500,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -20552,7 +20544,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -20582,7 +20574,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -20604,7 +20596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -20626,7 +20618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -20648,7 +20640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -20670,7 +20662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -20692,7 +20684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -20717,7 +20709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -20739,7 +20731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -20761,7 +20753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -20783,7 +20775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -20805,7 +20797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -20827,7 +20819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -20852,7 +20844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -20874,7 +20866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -20896,7 +20888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -20918,7 +20910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -20940,7 +20932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -20962,7 +20954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -20987,7 +20979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -21009,7 +21001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -21031,7 +21023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -21053,7 +21045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -21075,7 +21067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -21097,7 +21089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -21122,7 +21114,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -21144,7 +21136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -21166,7 +21158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -21188,7 +21180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -21210,7 +21202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -21232,7 +21224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -21257,7 +21249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -21279,7 +21271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -21301,7 +21293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -21323,7 +21315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -21345,7 +21337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -21367,7 +21359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -21392,7 +21384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -21414,7 +21406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -21436,7 +21428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -21458,7 +21450,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -21480,7 +21472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -21502,7 +21494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -21527,7 +21519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -21549,7 +21541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -21571,7 +21563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -21593,7 +21585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -21615,7 +21607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -21637,7 +21629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -21662,7 +21654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -21684,7 +21676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -21706,7 +21698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -21728,7 +21720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -21750,7 +21742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -21772,7 +21764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -21797,7 +21789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -21819,7 +21811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -21841,7 +21833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -21863,7 +21855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -21885,7 +21877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -21917,7 +21909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>1975</v>
       </c>
@@ -21949,7 +21941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1976</v>
       </c>
@@ -21981,7 +21973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1977</v>
       </c>
@@ -22013,7 +22005,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1978</v>
       </c>
@@ -22045,7 +22037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1979</v>
       </c>
@@ -22077,7 +22069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
         <v>28</v>
       </c>
@@ -22112,7 +22104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>1980</v>
       </c>
@@ -22144,7 +22136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1981</v>
       </c>
@@ -22176,7 +22168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1982</v>
       </c>
@@ -22208,13 +22200,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J72" s="6"/>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
   </sheetData>
@@ -22234,12 +22226,12 @@
       <selection pane="bottomLeft" activeCell="R71" sqref="R71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -22247,17 +22239,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -22291,7 +22283,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -22321,7 +22313,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -22355,7 +22347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -22389,7 +22381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -22423,7 +22415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -22457,7 +22449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -22491,7 +22483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -22528,7 +22520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -22562,7 +22554,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -22596,7 +22588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -22630,7 +22622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -22664,7 +22656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -22698,7 +22690,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -22735,7 +22727,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -22769,7 +22761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -22803,7 +22795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -22837,7 +22829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -22871,7 +22863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -22905,7 +22897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -22942,7 +22934,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -22976,7 +22968,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -23010,7 +23002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -23044,7 +23036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -23078,7 +23070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -23112,7 +23104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -23149,7 +23141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -23183,7 +23175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -23217,7 +23209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -23251,7 +23243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -23285,7 +23277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -23319,7 +23311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -23358,7 +23350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -23392,7 +23384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -23426,7 +23418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -23460,7 +23452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -23494,7 +23486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -23528,7 +23520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -23565,7 +23557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -23599,7 +23591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -23633,7 +23625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -23667,7 +23659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -23703,7 +23695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -23739,7 +23731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -23778,7 +23770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -23814,7 +23806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -23850,7 +23842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -23886,7 +23878,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -23922,7 +23914,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -23958,7 +23950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -23997,7 +23989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -24033,7 +24025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -24069,7 +24061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -24105,7 +24097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -24141,7 +24133,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -24177,7 +24169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -24216,7 +24208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -24252,7 +24244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -24288,7 +24280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -24324,7 +24316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -24360,7 +24352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -24396,7 +24388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -24435,7 +24427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -24471,7 +24463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -24507,7 +24499,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -24543,7 +24535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -24579,7 +24571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -24615,7 +24607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -24654,7 +24646,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -24690,7 +24682,7 @@
         <v>-15407</v>
       </c>
     </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -24727,7 +24719,7 @@
       </c>
       <c r="R71" s="3"/>
     </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -24763,13 +24755,13 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:18" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -24789,12 +24781,12 @@
       <selection pane="bottomLeft" activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -24802,17 +24794,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -24846,7 +24838,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -24876,7 +24868,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -24912,7 +24904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -24948,7 +24940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -24984,7 +24976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -25020,7 +25012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -25056,7 +25048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -25095,7 +25087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -25131,7 +25123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -25167,7 +25159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -25203,7 +25195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -25239,7 +25231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -25275,7 +25267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -25314,7 +25306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -25350,7 +25342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -25384,7 +25376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -25418,7 +25410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -25452,7 +25444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -25486,7 +25478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -25525,7 +25517,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -25559,7 +25551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -25593,7 +25585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -25627,7 +25619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -25661,7 +25653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -25695,7 +25687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -25732,7 +25724,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -25766,7 +25758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -25800,7 +25792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -25834,7 +25826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -25868,7 +25860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -25902,7 +25894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -25939,7 +25931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -25973,7 +25965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -26007,7 +25999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -26041,7 +26033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -26075,7 +26067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -26109,7 +26101,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -26146,7 +26138,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -26180,7 +26172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -26214,7 +26206,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -26248,7 +26240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -26284,7 +26276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -26320,7 +26312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -26359,7 +26351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -26395,7 +26387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -26431,7 +26423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -26467,7 +26459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -26503,7 +26495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -26539,7 +26531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -26578,7 +26570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -26614,7 +26606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -26650,7 +26642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -26686,7 +26678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -26722,7 +26714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -26758,7 +26750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -26797,7 +26789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -26833,7 +26825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -26869,7 +26861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -26905,7 +26897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -26941,7 +26933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -26977,7 +26969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -27016,7 +27008,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -27052,7 +27044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -27088,7 +27080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -27124,7 +27116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -27160,7 +27152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -27196,7 +27188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -27235,7 +27227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -27271,7 +27263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -27307,7 +27299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -27343,13 +27335,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -27369,12 +27361,12 @@
       <selection pane="bottomLeft" activeCell="J71" sqref="J71"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -27382,17 +27374,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -27426,7 +27418,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -27456,7 +27448,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -27478,7 +27470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -27500,7 +27492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -27522,7 +27514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -27544,7 +27536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -27566,7 +27558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -27591,7 +27583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -27613,7 +27605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -27635,7 +27627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -27657,7 +27649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -27679,7 +27671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -27701,7 +27693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -27726,7 +27718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -27748,7 +27740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -27770,7 +27762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -27792,7 +27784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -27814,7 +27806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -27836,7 +27828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -27861,7 +27853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -27883,7 +27875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -27905,7 +27897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -27927,7 +27919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -27949,7 +27941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -27971,7 +27963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -27996,7 +27988,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -28018,7 +28010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -28040,7 +28032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -28062,7 +28054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -28084,7 +28076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -28106,7 +28098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -28131,7 +28123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -28153,7 +28145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -28175,7 +28167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -28197,7 +28189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -28219,7 +28211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -28241,7 +28233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -28266,7 +28258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -28288,7 +28280,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -28310,7 +28302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -28332,7 +28324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -28354,7 +28346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -28376,7 +28368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -28401,7 +28393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -28423,7 +28415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -28445,7 +28437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -28467,7 +28459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -28489,7 +28481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -28511,7 +28503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -28536,7 +28528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -28558,7 +28550,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -28580,7 +28572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -28602,7 +28594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -28624,7 +28616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -28646,7 +28638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -28671,7 +28663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -28693,7 +28685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -28715,7 +28707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -28737,7 +28729,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -28759,7 +28751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -28781,7 +28773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -28806,7 +28798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -28838,7 +28830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -28870,7 +28862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -28902,7 +28894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -28934,7 +28926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -28966,7 +28958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -29001,7 +28993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -29033,7 +29025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -29065,7 +29057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -29097,13 +29089,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -29123,12 +29115,12 @@
       <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.15625" customWidth="1"/>
+    <col min="1" max="1" width="22.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -29136,17 +29128,17 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="13" t="s">
+      <c r="I1" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="13"/>
+      <c r="J1" s="14"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>12</v>
       </c>
@@ -29180,7 +29172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>15</v>
       </c>
@@ -29210,7 +29202,7 @@
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>1925</v>
       </c>
@@ -29232,7 +29224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>1926</v>
       </c>
@@ -29254,7 +29246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>1927</v>
       </c>
@@ -29276,7 +29268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>1928</v>
       </c>
@@ -29298,7 +29290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>1929</v>
       </c>
@@ -29320,7 +29312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>1</v>
       </c>
@@ -29345,7 +29337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>1930</v>
       </c>
@@ -29367,7 +29359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>1931</v>
       </c>
@@ -29389,7 +29381,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>1932</v>
       </c>
@@ -29411,7 +29403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>1933</v>
       </c>
@@ -29433,7 +29425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>1934</v>
       </c>
@@ -29455,7 +29447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>2</v>
       </c>
@@ -29480,7 +29472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>1935</v>
       </c>
@@ -29502,7 +29494,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -29524,7 +29516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -29546,7 +29538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -29568,7 +29560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -29590,7 +29582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -29615,7 +29607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -29637,7 +29629,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -29659,7 +29651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -29681,7 +29673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -29703,7 +29695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -29725,7 +29717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>4</v>
       </c>
@@ -29750,7 +29742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -29772,7 +29764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -29794,7 +29786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -29816,7 +29808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -29838,7 +29830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -29860,7 +29852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>5</v>
       </c>
@@ -29885,7 +29877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>1950</v>
       </c>
@@ -29907,7 +29899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>1951</v>
       </c>
@@ -29929,7 +29921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>1952</v>
       </c>
@@ -29951,7 +29943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>1953</v>
       </c>
@@ -29973,7 +29965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>1954</v>
       </c>
@@ -29995,7 +29987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
         <v>6</v>
       </c>
@@ -30020,7 +30012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>1955</v>
       </c>
@@ -30042,7 +30034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>1956</v>
       </c>
@@ -30064,7 +30056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>1957</v>
       </c>
@@ -30086,7 +30078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>1958</v>
       </c>
@@ -30108,7 +30100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>1959</v>
       </c>
@@ -30130,7 +30122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
         <v>7</v>
       </c>
@@ -30155,7 +30147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>1960</v>
       </c>
@@ -30189,7 +30181,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>1961</v>
       </c>
@@ -30221,7 +30213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>1962</v>
       </c>
@@ -30253,7 +30245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>1963</v>
       </c>
@@ -30285,7 +30277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>1964</v>
       </c>
@@ -30317,7 +30309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
         <v>8</v>
       </c>
@@ -30354,7 +30346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>1965</v>
       </c>
@@ -30386,7 +30378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>1966</v>
       </c>
@@ -30418,7 +30410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>1967</v>
       </c>
@@ -30450,7 +30442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>1968</v>
       </c>
@@ -30482,7 +30474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>1969</v>
       </c>
@@ -30514,7 +30506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
         <v>10</v>
       </c>
@@ -30549,7 +30541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>1970</v>
       </c>
@@ -30581,7 +30573,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>1971</v>
       </c>
@@ -30613,7 +30605,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>1972</v>
       </c>
@@ -30645,7 +30637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>1973</v>
       </c>
@@ -30677,7 +30669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>1974</v>
       </c>
@@ -30711,7 +30703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
         <v>11</v>
       </c>
@@ -30748,7 +30740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>1975</v>
       </c>
@@ -30780,7 +30772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -30812,7 +30804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -30844,7 +30836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -30876,7 +30868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -30908,7 +30900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -30943,7 +30935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -30975,7 +30967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -31007,7 +30999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -31039,13 +31031,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="J75" s="6"/>
     </row>
   </sheetData>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-A-C.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-A-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21D0841-CAD7-47DC-B1B5-5C4D740D6642}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F72CD880-A046-44FF-B9B6-E392175E124D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8730" yWindow="3900" windowWidth="23055" windowHeight="19110" firstSheet="5" activeTab="10" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="2235" yWindow="2205" windowWidth="23055" windowHeight="19110" firstSheet="10" activeTab="14" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="30">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -132,6 +132,9 @@
   </si>
   <si>
     <t>Promedio 1974/79</t>
+  </si>
+  <si>
+    <t>Promedio 1941/44</t>
   </si>
 </sst>
 </file>
@@ -560,8 +563,8 @@
   <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q63" sqref="Q63:X63"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -793,7 +796,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8">
         <v>169</v>
@@ -3023,9 +3026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01219A3-8665-49E7-B51B-477B8C465D36}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J67" sqref="J67"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3257,7 +3260,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8">
         <v>3243</v>
@@ -5388,8 +5391,8 @@
   <dimension ref="A1:V75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q39" sqref="Q39:V39"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5615,7 +5618,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -7682,8 +7685,8 @@
   <dimension ref="A1:O75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G69" sqref="G69"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7905,7 +7908,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8"/>
       <c r="C9" s="8"/>
@@ -9850,8 +9853,8 @@
   <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A33" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G63" sqref="G63"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S31" sqref="S31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10498,7 +10501,7 @@
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="B27" s="8">
         <v>10814</v>
@@ -12023,9 +12026,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78AC5E09-E028-434E-99CC-8A6C9A8C9055}">
   <dimension ref="A1:O75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12257,7 +12260,7 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="B9" s="8">
         <v>174</v>

--- a/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-A-C.xlsx
+++ b/rtss-mexico/src/main/resources/agriculture/SARH-Consumos-aparentes/SARH-Consumos-aparentes-perennial-crops-A-C.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-mexico\src\main\resources\agriculture\SARH-Consumos-aparentes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61478FFD-CA02-46C2-AFBA-55FBB33BB49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F0B6B4-7080-41DD-8504-9A9643AB7DFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="77235" yWindow="990" windowWidth="36870" windowHeight="21360" firstSheet="2" activeTab="14" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
+    <workbookView xWindow="76890" yWindow="1905" windowWidth="36870" windowHeight="21360" firstSheet="2" activeTab="2" xr2:uid="{CAD24EF5-B129-49CA-8DC9-13A2504163E2}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="31">
   <si>
     <t>Данные из: SARH - Consumos aparentes de productos agricolas, 1925-1982 (Econotecnia Agricola т.7 №9 Septiembre 1983)</t>
   </si>
@@ -141,13 +141,17 @@
   <si>
     <t>Promedio 1941/44</t>
   </si>
+  <si>
+    <t>потребление пересчитано</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -204,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -223,10 +227,11 @@
     <xf numFmtId="1" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -586,10 +591,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -1178,7 +1183,7 @@
       <c r="I20" s="3">
         <v>3421</v>
       </c>
-      <c r="J20" s="15">
+      <c r="J20" s="14">
         <v>0.17599999999999999</v>
       </c>
       <c r="M20" s="2">
@@ -2982,10 +2987,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -3287,7 +3292,7 @@
       <c r="I11" s="3">
         <v>2368</v>
       </c>
-      <c r="J11" s="15">
+      <c r="J11" s="14">
         <v>0.14000000000000001</v>
       </c>
       <c r="M11" s="2">
@@ -5446,10 +5451,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -7810,10 +7815,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -8555,7 +8560,7 @@
       <c r="I25" s="3">
         <v>15365</v>
       </c>
-      <c r="J25" s="15">
+      <c r="J25" s="14">
         <v>0.72599999999999998</v>
       </c>
       <c r="M25" s="2">
@@ -10104,10 +10109,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -12254,9 +12259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB16842F-B457-469B-A421-D5192ABCA239}">
   <dimension ref="A1:X75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A22" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="X39" sqref="X39"/>
+      <selection pane="bottomLeft" activeCell="R23" sqref="R23:R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12272,10 +12277,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -12638,7 +12643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>1936</v>
       </c>
@@ -12660,7 +12665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>1937</v>
       </c>
@@ -12682,7 +12687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>1938</v>
       </c>
@@ -12704,7 +12709,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>1939</v>
       </c>
@@ -12726,7 +12731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7" t="s">
         <v>3</v>
       </c>
@@ -12751,7 +12756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>1940</v>
       </c>
@@ -12773,7 +12778,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>1941</v>
       </c>
@@ -12790,11 +12795,11 @@
       <c r="F23" s="3"/>
       <c r="G23" s="3"/>
       <c r="H23" s="3"/>
-      <c r="I23" s="3">
-        <v>3555</v>
-      </c>
-      <c r="J23" s="6">
-        <v>0.27200000000000002</v>
+      <c r="I23" s="12">
+        <v>3355</v>
+      </c>
+      <c r="J23" s="14">
+        <v>0.17199999999999999</v>
       </c>
       <c r="M23" s="2">
         <f t="shared" si="0"/>
@@ -12802,10 +12807,11 @@
       </c>
       <c r="O23">
         <f t="shared" si="1"/>
-        <v>-200</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="R23" s="6"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>1942</v>
       </c>
@@ -12837,7 +12843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>1943</v>
       </c>
@@ -12869,7 +12875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>1944</v>
       </c>
@@ -12901,7 +12907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7" t="s">
         <v>29</v>
       </c>
@@ -12935,8 +12941,12 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q27" s="3"/>
+      <c r="R27" s="6"/>
+      <c r="V27" s="3"/>
+      <c r="W27" s="3"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>1945</v>
       </c>
@@ -12968,7 +12978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>1946</v>
       </c>
@@ -13000,7 +13010,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>1947</v>
       </c>
@@ -13032,7 +13042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>1948</v>
       </c>
@@ -13064,7 +13074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>1949</v>
       </c>
@@ -14331,7 +14341,7 @@
       <c r="I70" s="5">
         <v>2096</v>
       </c>
-      <c r="J70" s="15">
+      <c r="J70" s="14">
         <v>0.03</v>
       </c>
       <c r="M70" s="2">
@@ -14446,10 +14456,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -16090,11 +16100,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2E8B67E-F4BA-4331-AA16-B29457B2249B}">
-  <dimension ref="A1:O74"/>
+  <dimension ref="A1:X74"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I72" sqref="I72"/>
+      <selection pane="bottomLeft" activeCell="Q62" sqref="Q62:W62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -16110,10 +16120,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -17254,7 +17264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>1964</v>
       </c>
@@ -17288,7 +17298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7" t="s">
         <v>8</v>
       </c>
@@ -17325,7 +17335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>1965</v>
       </c>
@@ -17361,7 +17371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>1966</v>
       </c>
@@ -17395,7 +17405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>1967</v>
       </c>
@@ -17429,7 +17439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>1968</v>
       </c>
@@ -17463,7 +17473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>1969</v>
       </c>
@@ -17497,7 +17507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7" t="s">
         <v>10</v>
       </c>
@@ -17536,7 +17546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>1970</v>
       </c>
@@ -17570,7 +17580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>1971</v>
       </c>
@@ -17606,7 +17616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>1972</v>
       </c>
@@ -17640,7 +17650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>1973</v>
       </c>
@@ -17676,7 +17686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>1974</v>
       </c>
@@ -17710,7 +17720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7" t="s">
         <v>11</v>
       </c>
@@ -17748,8 +17758,16 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+      <c r="Q62" s="3"/>
+      <c r="R62" s="3"/>
+      <c r="S62" s="3"/>
+      <c r="T62" s="3"/>
+      <c r="U62" s="3"/>
+      <c r="V62" s="3"/>
+      <c r="W62" s="15"/>
+      <c r="X62" s="15"/>
+    </row>
+    <row r="63" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>1975</v>
       </c>
@@ -17783,7 +17801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:24" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>1976</v>
       </c>
@@ -18092,8 +18110,8 @@
   <dimension ref="A1:X75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="W25" sqref="W25"/>
+      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -18109,10 +18127,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -18506,8 +18524,8 @@
       <c r="I14" s="12">
         <v>30225</v>
       </c>
-      <c r="J14" s="6">
-        <v>1.1359999999999999</v>
+      <c r="J14" s="14">
+        <v>1.7</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" si="0"/>
@@ -18555,6 +18573,8 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="3"/>
       <c r="S15" s="3"/>
+      <c r="V15" s="3"/>
+      <c r="W15" s="15"/>
       <c r="X15" s="3"/>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.55000000000000004">
@@ -19363,7 +19383,7 @@
       <c r="I40" s="3">
         <v>80527</v>
       </c>
-      <c r="J40" s="15">
+      <c r="J40" s="14">
         <v>2.6389999999999998</v>
       </c>
       <c r="M40" s="2">
@@ -20131,7 +20151,7 @@
       </c>
       <c r="E63" s="8"/>
       <c r="F63" s="12">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="G63" s="12">
         <v>324</v>
@@ -20152,7 +20172,7 @@
       <c r="N63" s="10"/>
       <c r="O63" s="10">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="Q63" s="3"/>
       <c r="R63" s="3"/>
@@ -20509,10 +20529,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -22228,11 +22248,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1F8C4EA-8FC7-4D15-9C7D-B2C00B089A02}">
-  <dimension ref="A1:R75"/>
+  <dimension ref="A1:W75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R71" sqref="R71"/>
+      <selection pane="bottomLeft" activeCell="O71" sqref="O71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -22248,10 +22268,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -24472,7 +24492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>1976</v>
       </c>
@@ -24508,7 +24528,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>1977</v>
       </c>
@@ -24544,7 +24564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>1978</v>
       </c>
@@ -24580,7 +24600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>1979</v>
       </c>
@@ -24616,7 +24636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7" t="s">
         <v>9</v>
       </c>
@@ -24633,15 +24653,15 @@
       <c r="F69" s="8">
         <v>239</v>
       </c>
-      <c r="G69" s="8">
-        <v>15310</v>
+      <c r="G69" s="12">
+        <v>15370</v>
       </c>
       <c r="H69" s="8"/>
-      <c r="I69" s="8">
-        <v>18201</v>
-      </c>
-      <c r="J69" s="9">
-        <v>0.28699999999999998</v>
+      <c r="I69" s="12">
+        <v>18846</v>
+      </c>
+      <c r="J69" s="14">
+        <v>0.29399999999999998</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="10"/>
@@ -24652,10 +24672,15 @@
       <c r="N69" s="10"/>
       <c r="O69" s="10">
         <f t="shared" ref="O69:O72" si="3">D69-G69+F69-I69</f>
-        <v>719</v>
-      </c>
-    </row>
-    <row r="70" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>14</v>
+      </c>
+      <c r="Q69" s="3"/>
+      <c r="S69" s="3"/>
+      <c r="T69" s="3"/>
+      <c r="V69" s="3"/>
+      <c r="W69" s="15"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>1980</v>
       </c>
@@ -24677,21 +24702,23 @@
       </c>
       <c r="H70" s="3"/>
       <c r="I70" s="5">
-        <v>36199</v>
-      </c>
-      <c r="J70" s="6">
-        <v>0.92100000000000004</v>
-      </c>
+        <f>D70-G70+F70</f>
+        <v>20792</v>
+      </c>
+      <c r="J70" s="6"/>
       <c r="M70" s="2">
         <f t="shared" si="2"/>
         <v>135.99900000000343</v>
       </c>
       <c r="O70">
         <f t="shared" si="3"/>
-        <v>-15407</v>
-      </c>
-    </row>
-    <row r="71" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="R70" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>1981</v>
       </c>
@@ -24708,27 +24735,25 @@
       <c r="F71" s="3">
         <v>80</v>
       </c>
-      <c r="G71" s="3">
-        <v>50068</v>
+      <c r="G71" s="12">
+        <v>5068</v>
       </c>
       <c r="H71" s="3"/>
-      <c r="I71" s="3">
+      <c r="I71" s="5">
+        <f>D71-G71+F71</f>
         <v>25348</v>
       </c>
-      <c r="J71" s="6">
-        <v>0.35599999999999998</v>
-      </c>
+      <c r="J71" s="6"/>
       <c r="M71" s="2">
         <f t="shared" si="2"/>
         <v>3.2210000000013679</v>
       </c>
       <c r="O71">
         <f t="shared" si="3"/>
-        <v>-45000</v>
-      </c>
-      <c r="R71" s="3"/>
-    </row>
-    <row r="72" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>1982</v>
       </c>
@@ -24749,28 +24774,30 @@
         <v>11518</v>
       </c>
       <c r="H72" s="3"/>
-      <c r="I72" s="3">
-        <v>22668</v>
-      </c>
-      <c r="J72" s="6">
-        <v>0.36499999999999999</v>
-      </c>
+      <c r="I72" s="5">
+        <f t="shared" ref="I72" si="4">D72-G72+F72</f>
+        <v>26668</v>
+      </c>
+      <c r="J72" s="6"/>
       <c r="M72" s="2">
         <f t="shared" si="2"/>
         <v>28</v>
       </c>
       <c r="O72">
         <f t="shared" si="3"/>
-        <v>4000</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+        <v>0</v>
+      </c>
+      <c r="R72" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="J73" s="6"/>
     </row>
-    <row r="74" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="J74" s="6"/>
     </row>
-    <row r="75" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="J75" s="6"/>
     </row>
   </sheetData>
@@ -24803,10 +24830,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -27383,10 +27410,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
@@ -29137,10 +29164,10 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="14"/>
+      <c r="J1" s="16"/>
       <c r="K1" s="4"/>
       <c r="L1" s="4"/>
       <c r="M1" s="4"/>
